--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\cydeo-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C3B3F9D3-1685-4D95-90AF-583CCCDFC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56211DBF-986D-4AE4-A5CB-145D9B00F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2448" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -44,9 +44,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Edd</t>
   </si>
   <si>
-    <t>Eddie</t>
-  </si>
-  <si>
     <t>Liza</t>
   </si>
   <si>
@@ -95,22 +89,32 @@
     <t>Stamm</t>
   </si>
   <si>
-    <t>Tumer</t>
-  </si>
-  <si>
-    <t>Rodriquez</t>
-  </si>
-  <si>
-    <t>Fristch</t>
-  </si>
-  <si>
     <t>Prohaska</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Medhurst</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,13 +469,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,109 +492,109 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
